--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1346.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1346.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.132750534528238</v>
+        <v>1.187734603881836</v>
       </c>
       <c r="B1">
-        <v>2.609894216356799</v>
+        <v>2.601245641708374</v>
       </c>
       <c r="C1">
-        <v>4.329269079354365</v>
+        <v>9.328455924987793</v>
       </c>
       <c r="D1">
-        <v>2.494803029363227</v>
+        <v>2.085776805877686</v>
       </c>
       <c r="E1">
-        <v>1.179572476801709</v>
+        <v>1.215054988861084</v>
       </c>
     </row>
   </sheetData>
